--- a/20计应2/2020五年制新生花名册-计应2.xlsx
+++ b/20计应2/2020五年制新生花名册-计应2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\20计应2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C881920-7B23-42D2-B8D2-DDC36867B695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CA81A-61F5-4389-AE2F-3DAE7B8918C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="627">
   <si>
-    <t xml:space="preserve"> 班级：      计算机应用技术2班         总人数： 53   人（男  47   人 女  6   人）                   班导：        李星     电话： 18711053774  </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2115,12 +2112,16 @@
     <t>自动退学</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 班级：      计算机应用技术2班         总人数： 52   人（男  46   人 女  6   人）                   班导：        李星     电话： 18711053774  </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2838,6 +2839,15 @@
     <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2858,15 +2868,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3146,11 +3147,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R56" sqref="R56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="13.5" style="9" customWidth="1"/>
@@ -3172,111 +3173,111 @@
     <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:17" ht="70" customHeight="1">
+      <c r="A1" s="124" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="86"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="86"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="D2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="H2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="I2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="J2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="K2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="L2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="M2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="N2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="O2" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="P2" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="102" t="s">
+      <c r="Q2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="108" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="28">
+      <c r="A3" s="91" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="F3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="G3" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="I3" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="J3" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="K3" s="94" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="104">
         <v>15070545898</v>
@@ -3285,47 +3286,47 @@
         <v>3012733435</v>
       </c>
       <c r="N3" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="103" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="103" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="91"/>
       <c r="Q3" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="68" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>31</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="I4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="J4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="68" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="68">
         <v>18179959334</v>
@@ -3337,93 +3338,93 @@
         <v>18079950928</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="68"/>
       <c r="Q4" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28">
+      <c r="A5" s="68" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>39</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="109" t="s">
+      <c r="F5" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="J5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="68" t="s">
-        <v>44</v>
-      </c>
       <c r="K5" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="68">
         <v>18470564650</v>
       </c>
       <c r="M5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="68" t="s">
-        <v>46</v>
-      </c>
       <c r="O5" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="65"/>
       <c r="Q5" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="70" t="s">
+      <c r="F6" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="59" t="s">
+      <c r="I6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="J6" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="K6" s="70" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>53</v>
       </c>
       <c r="L6" s="68">
         <v>18579269344</v>
@@ -3435,44 +3436,44 @@
         <v>13926042615</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="68"/>
       <c r="Q6" s="64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="68" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
-        <v>55</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="109" t="s">
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="I7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="J7" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="68" t="s">
-        <v>60</v>
-      </c>
       <c r="K7" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="68">
         <v>18679969104</v>
@@ -3484,44 +3485,44 @@
         <v>13879961028</v>
       </c>
       <c r="O7" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="68"/>
       <c r="Q7" s="59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="68" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
-        <v>62</v>
       </c>
       <c r="B8" s="72"/>
       <c r="C8" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="109" t="s">
+      <c r="F8" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="59" t="s">
+      <c r="I8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="J8" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="68" t="s">
-        <v>67</v>
-      </c>
       <c r="K8" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="68">
         <v>18279925645</v>
@@ -3533,93 +3534,93 @@
         <v>15979275359</v>
       </c>
       <c r="O8" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="68"/>
       <c r="Q8" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16">
+      <c r="A9" s="68" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
-        <v>69</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="F9" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="98" t="s">
+      <c r="I9" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="J9" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="K9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="L9" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="M9" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="N9" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="70" t="s">
-        <v>79</v>
-      </c>
       <c r="O9" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="70"/>
       <c r="Q9" s="98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="68" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
-        <v>81</v>
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="70" t="s">
+      <c r="F10" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="59" t="s">
+      <c r="I10" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="J10" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="K10" s="68" t="s">
         <v>86</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>87</v>
       </c>
       <c r="L10" s="68">
         <v>15720924092</v>
@@ -3631,243 +3632,243 @@
         <v>15170318114</v>
       </c>
       <c r="O10" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" s="68"/>
       <c r="Q10" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="68" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
-        <v>89</v>
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="64" t="s">
+      <c r="I11" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="J11" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="K11" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="68" t="s">
+      <c r="M11" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="N11" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="N11" s="68" t="s">
-        <v>97</v>
-      </c>
       <c r="O11" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="68"/>
       <c r="Q11" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="70" t="s">
+      <c r="F12" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="59" t="s">
+      <c r="I12" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="J12" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="K12" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="68" t="s">
+      <c r="M12" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="N12" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="68" t="s">
-        <v>106</v>
-      </c>
       <c r="O12" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="68"/>
       <c r="Q12" s="59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="70" t="s">
+      <c r="F13" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="59" t="s">
+      <c r="I13" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="J13" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="K13" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="68" t="s">
+      <c r="M13" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="N13" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="68" t="s">
-        <v>115</v>
-      </c>
       <c r="O13" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="68"/>
       <c r="Q13" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="70"/>
       <c r="C14" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="70" t="s">
+      <c r="F14" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="98" t="s">
+      <c r="I14" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="J14" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="K14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="L14" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="M14" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="N14" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="O14" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="P14" s="70"/>
       <c r="Q14" s="98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="70" t="s">
+      <c r="F15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="59" t="s">
+      <c r="I15" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="J15" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="K15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="68" t="s">
         <v>132</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>133</v>
       </c>
       <c r="M15" s="105">
         <v>514218479</v>
@@ -3876,238 +3877,238 @@
         <v>18979241822</v>
       </c>
       <c r="O15" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="65"/>
       <c r="Q15" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="70" t="s">
+      <c r="F16" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="65" t="s">
+      <c r="I16" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="J16" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="K16" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="68" t="s">
+      <c r="M16" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="68" t="s">
+      <c r="N16" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="68" t="s">
-        <v>153</v>
-      </c>
       <c r="O16" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="68"/>
       <c r="Q16" s="65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="70" t="s">
+      <c r="F17" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="65" t="s">
+      <c r="I17" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="J17" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="K17" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="68" t="s">
+      <c r="M17" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="68" t="s">
+      <c r="N17" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="N17" s="68" t="s">
-        <v>162</v>
-      </c>
       <c r="O17" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P17" s="68"/>
       <c r="Q17" s="65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="68" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>164</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="70" t="s">
+      <c r="F18" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="65" t="s">
+      <c r="I18" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="J18" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="K18" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="68" t="s">
+      <c r="M18" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="N18" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="N18" s="68" t="s">
-        <v>172</v>
-      </c>
       <c r="O18" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="68"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="66" customFormat="1">
       <c r="A19" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="70" t="s">
+      <c r="F19" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="59" t="s">
+      <c r="I19" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="J19" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="K19" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="68" t="s">
+      <c r="M19" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="N19" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="N19" s="68" t="s">
-        <v>187</v>
-      </c>
       <c r="O19" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="68"/>
       <c r="Q19" s="59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="109" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="109" t="s">
+      <c r="F20" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="65" t="s">
+      <c r="I20" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="J20" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="K20" s="68" t="s">
         <v>193</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>194</v>
       </c>
       <c r="L20" s="68">
         <v>18807048419</v>
@@ -4119,387 +4120,387 @@
         <v>18296440967</v>
       </c>
       <c r="O20" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P20" s="68"/>
       <c r="Q20" s="65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="70" t="s">
+      <c r="F21" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="59" t="s">
+      <c r="I21" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="J21" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="K21" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="K21" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="L21" s="68" t="s">
+      <c r="M21" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="N21" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="N21" s="68" t="s">
-        <v>203</v>
-      </c>
       <c r="O21" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" s="68"/>
       <c r="Q21" s="59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16">
       <c r="A22" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="70" t="s">
+      <c r="F22" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="98" t="s">
+      <c r="I22" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="J22" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="K22" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="L22" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="70" t="s">
+      <c r="M22" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="M22" s="70" t="s">
+      <c r="N22" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="N22" s="70" t="s">
-        <v>213</v>
-      </c>
       <c r="O22" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P22" s="70"/>
       <c r="Q22" s="98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="11" customFormat="1">
       <c r="A23" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="109" t="s">
+      <c r="F23" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="59" t="s">
+      <c r="I23" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="J23" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="K23" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="K23" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" s="68" t="s">
+      <c r="M23" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="N23" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="68" t="s">
-        <v>222</v>
-      </c>
       <c r="O23" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P23" s="68"/>
       <c r="Q23" s="59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="72"/>
       <c r="C24" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="109" t="s">
+      <c r="F24" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="65" t="s">
+      <c r="I24" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="J24" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="K24" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="K24" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="68" t="s">
+      <c r="M24" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="M24" s="68" t="s">
+      <c r="N24" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="68" t="s">
-        <v>231</v>
-      </c>
       <c r="O24" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P24" s="68"/>
       <c r="Q24" s="65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="72"/>
       <c r="C25" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="70" t="s">
+      <c r="F25" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="59" t="s">
+      <c r="I25" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="J25" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="K25" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="K25" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="L25" s="68" t="s">
+      <c r="M25" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="N25" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="N25" s="68" t="s">
-        <v>240</v>
-      </c>
       <c r="O25" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P25" s="68"/>
       <c r="Q25" s="59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="109" t="s">
+      <c r="F26" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="59" t="s">
+      <c r="I26" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="J26" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="J26" s="68" t="s">
+      <c r="K26" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="K26" s="68" t="s">
+      <c r="L26" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="M26" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="M26" s="68" t="s">
+      <c r="N26" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="N26" s="68" t="s">
-        <v>250</v>
-      </c>
       <c r="O26" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P26" s="68"/>
       <c r="Q26" s="59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="D27" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="109" t="s">
+      <c r="F27" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="F27" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="59" t="s">
+      <c r="I27" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="J27" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="K27" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="K27" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" s="68" t="s">
+      <c r="M27" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="M27" s="68" t="s">
+      <c r="N27" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="N27" s="68" t="s">
-        <v>259</v>
-      </c>
       <c r="O27" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P27" s="65"/>
       <c r="Q27" s="59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="68" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>261</v>
       </c>
       <c r="B28" s="70"/>
       <c r="C28" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="70" t="s">
+      <c r="F28" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="98" t="s">
+      <c r="I28" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="I28" s="97" t="s">
+      <c r="J28" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="J28" s="70" t="s">
-        <v>266</v>
-      </c>
       <c r="K28" s="68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L28" s="70">
         <v>18046790178</v>
@@ -4511,142 +4512,142 @@
         <v>13237598858</v>
       </c>
       <c r="O28" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P28" s="70"/>
       <c r="Q28" s="98" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="70" t="s">
+      <c r="F29" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="F29" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="59" t="s">
+      <c r="I29" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="J29" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="K29" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="K29" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="L29" s="68" t="s">
+      <c r="M29" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="M29" s="68" t="s">
+      <c r="N29" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="N29" s="68" t="s">
-        <v>275</v>
-      </c>
       <c r="O29" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P29" s="68"/>
       <c r="Q29" s="59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="68" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>277</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="70" t="s">
+      <c r="F30" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="59" t="s">
+      <c r="I30" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="I30" s="105" t="s">
+      <c r="J30" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="J30" s="106" t="s">
+      <c r="K30" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="K30" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="L30" s="68" t="s">
+      <c r="M30" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="M30" s="68" t="s">
+      <c r="N30" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="N30" s="68" t="s">
-        <v>285</v>
-      </c>
       <c r="O30" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P30" s="68"/>
       <c r="Q30" s="59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="68" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>287</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="D31" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="70" t="s">
+      <c r="F31" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="F31" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="59" t="s">
+      <c r="I31" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="J31" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="K31" s="68" t="s">
         <v>292</v>
-      </c>
-      <c r="K31" s="68" t="s">
-        <v>293</v>
       </c>
       <c r="L31" s="68">
         <v>18110991127</v>
@@ -4658,436 +4659,436 @@
         <v>15970218594</v>
       </c>
       <c r="O31" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P31" s="68"/>
       <c r="Q31" s="59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="70" t="s">
+      <c r="F32" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="F32" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="59" t="s">
+      <c r="I32" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="J32" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="K32" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="L32" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="M32" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="N32" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="N32" s="68" t="s">
-        <v>303</v>
-      </c>
       <c r="O32" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P32" s="68"/>
       <c r="Q32" s="59" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="70" t="s">
+      <c r="F33" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="F33" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="59" t="s">
+      <c r="I33" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="J33" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="K33" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="L33" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="M33" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="N33" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="N33" s="68" t="s">
-        <v>313</v>
-      </c>
       <c r="O33" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P33" s="68"/>
       <c r="Q33" s="64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="70" t="s">
+      <c r="F34" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="F34" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="59" t="s">
+      <c r="I34" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="J34" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="K34" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="K34" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="L34" s="68" t="s">
+      <c r="M34" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="M34" s="68" t="s">
+      <c r="N34" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="N34" s="68" t="s">
-        <v>322</v>
-      </c>
       <c r="O34" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P34" s="68"/>
       <c r="Q34" s="59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" s="72"/>
       <c r="C35" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="D35" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="70" t="s">
+      <c r="F35" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="F35" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="59" t="s">
+      <c r="I35" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="J35" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="K35" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="K35" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="L35" s="68" t="s">
+      <c r="M35" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="M35" s="68" t="s">
+      <c r="N35" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="N35" s="68" t="s">
-        <v>331</v>
-      </c>
       <c r="O35" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P35" s="68"/>
       <c r="Q35" s="59" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="70" t="s">
+      <c r="F36" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="F36" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="59" t="s">
+      <c r="I36" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="I36" s="65" t="s">
+      <c r="J36" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="J36" s="68" t="s">
+      <c r="K36" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="K36" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="L36" s="68" t="s">
+      <c r="M36" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="M36" s="68" t="s">
+      <c r="N36" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="N36" s="68" t="s">
-        <v>340</v>
-      </c>
       <c r="O36" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P36" s="68"/>
       <c r="Q36" s="59" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="109" t="s">
         <v>342</v>
       </c>
-      <c r="D37" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="109" t="s">
+      <c r="F37" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="F37" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="64" t="s">
+      <c r="I37" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="J37" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="J37" s="65" t="s">
+      <c r="K37" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="K37" s="68" t="s">
+      <c r="L37" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="L37" s="68" t="s">
+      <c r="M37" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="M37" s="68" t="s">
+      <c r="N37" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="N37" s="68" t="s">
-        <v>350</v>
-      </c>
       <c r="O37" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P37" s="68"/>
       <c r="Q37" s="64" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="109" t="s">
+      <c r="F38" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="F38" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="59" t="s">
+      <c r="I38" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="J38" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="J38" s="68" t="s">
-        <v>356</v>
-      </c>
       <c r="K38" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L38" s="105">
         <v>18879989132</v>
       </c>
       <c r="M38" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="N38" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="N38" s="68" t="s">
-        <v>358</v>
-      </c>
       <c r="O38" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P38" s="68"/>
       <c r="Q38" s="59" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="109" t="s">
         <v>360</v>
       </c>
-      <c r="D39" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="109" t="s">
+      <c r="F39" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F39" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="59" t="s">
+      <c r="I39" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="J39" s="68" t="s">
         <v>363</v>
       </c>
-      <c r="J39" s="68" t="s">
+      <c r="K39" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="K39" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="L39" s="68" t="s">
+      <c r="M39" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="M39" s="68" t="s">
+      <c r="N39" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="N39" s="68" t="s">
-        <v>367</v>
-      </c>
       <c r="O39" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P39" s="68"/>
       <c r="Q39" s="59" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B40" s="74"/>
       <c r="C40" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="110" t="s">
         <v>369</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="110" t="s">
+      <c r="F40" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="64" t="s">
+      <c r="I40" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="J40" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="J40" s="68" t="s">
-        <v>373</v>
-      </c>
       <c r="K40" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L40" s="68">
         <v>13635920195</v>
@@ -5099,91 +5100,91 @@
         <v>13422695065</v>
       </c>
       <c r="O40" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="36"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="110" t="s">
+      <c r="F41" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="F41" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="59" t="s">
+      <c r="I41" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="I41" s="65" t="s">
+      <c r="J41" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="J41" s="68" t="s">
+      <c r="K41" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="L41" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="M41" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="M41" s="68" t="s">
+      <c r="N41" s="68" t="s">
         <v>382</v>
       </c>
-      <c r="N41" s="68" t="s">
-        <v>383</v>
-      </c>
       <c r="O41" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P41" s="68"/>
       <c r="Q41" s="59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16">
+      <c r="A42" s="68" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
-        <v>385</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="D42" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="D42" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="70" t="s">
+      <c r="F42" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="F42" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="98" t="s">
+      <c r="I42" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="I42" s="70" t="s">
+      <c r="J42" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="K42" s="68" t="s">
         <v>390</v>
-      </c>
-      <c r="K42" s="68" t="s">
-        <v>391</v>
       </c>
       <c r="L42" s="70">
         <v>18979981735</v>
@@ -5195,240 +5196,240 @@
         <v>15083890607</v>
       </c>
       <c r="O42" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P42" s="70"/>
       <c r="Q42" s="98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B43" s="72"/>
       <c r="C43" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="D43" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="70" t="s">
+      <c r="F43" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="F43" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="59" t="s">
+      <c r="I43" s="107" t="s">
         <v>395</v>
       </c>
-      <c r="I43" s="107" t="s">
+      <c r="J43" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="K43" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="L43" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="K43" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="L43" s="106" t="s">
+      <c r="M43" s="106" t="s">
         <v>398</v>
       </c>
-      <c r="M43" s="106" t="s">
+      <c r="N43" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="N43" s="106" t="s">
-        <v>400</v>
-      </c>
       <c r="O43" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P43" s="107"/>
       <c r="Q43" s="64" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B44" s="72"/>
       <c r="C44" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="D44" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="70" t="s">
+      <c r="F44" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="F44" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="59" t="s">
+      <c r="I44" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="I44" s="65" t="s">
+      <c r="J44" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="J44" s="68" t="s">
+      <c r="K44" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="L44" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="K44" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="L44" s="68" t="s">
+      <c r="M44" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="M44" s="68" t="s">
+      <c r="N44" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="N44" s="68" t="s">
-        <v>409</v>
-      </c>
       <c r="O44" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P44" s="68"/>
       <c r="Q44" s="59" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="11" customFormat="1">
       <c r="A45" s="68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B45" s="74"/>
       <c r="C45" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="64" t="s">
+      <c r="I45" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="I45" s="65" t="s">
+      <c r="J45" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="J45" s="68" t="s">
+      <c r="K45" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="K45" s="68" t="s">
+      <c r="L45" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="L45" s="68" t="s">
+      <c r="M45" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="M45" s="68" t="s">
+      <c r="N45" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="N45" s="68" t="s">
-        <v>419</v>
-      </c>
       <c r="O45" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P45" s="68"/>
       <c r="Q45" s="64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16">
+      <c r="A46" s="68" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
-        <v>421</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="70" t="s">
+      <c r="F46" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="98" t="s">
         <v>423</v>
       </c>
-      <c r="F46" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="98" t="s">
+      <c r="I46" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="I46" s="70" t="s">
+      <c r="J46" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="K46" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="K46" s="68" t="s">
+      <c r="L46" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="L46" s="70" t="s">
+      <c r="M46" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="M46" s="70" t="s">
+      <c r="N46" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N46" s="70" t="s">
-        <v>430</v>
-      </c>
       <c r="O46" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P46" s="70"/>
       <c r="Q46" s="98" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B47" s="72"/>
       <c r="C47" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="109" t="s">
         <v>432</v>
       </c>
-      <c r="D47" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="109" t="s">
+      <c r="F47" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="F47" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="59" t="s">
+      <c r="I47" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="I47" s="65" t="s">
+      <c r="J47" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="J47" s="68" t="s">
-        <v>436</v>
-      </c>
       <c r="K47" s="68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L47" s="68">
         <v>15970720274</v>
@@ -5440,44 +5441,44 @@
         <v>15207075612</v>
       </c>
       <c r="O47" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P47" s="68"/>
       <c r="Q47" s="59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="68" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
-        <v>438</v>
       </c>
       <c r="B48" s="72"/>
       <c r="C48" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="100" t="s">
         <v>439</v>
       </c>
-      <c r="D48" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="100" t="s">
+      <c r="F48" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="F48" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="59" t="s">
+      <c r="I48" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="I48" s="107" t="s">
+      <c r="J48" s="106" t="s">
         <v>442</v>
       </c>
-      <c r="J48" s="106" t="s">
-        <v>443</v>
-      </c>
       <c r="K48" s="106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L48" s="106">
         <v>18307067375</v>
@@ -5489,93 +5490,93 @@
         <v>13426569902</v>
       </c>
       <c r="O48" s="107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P48" s="106"/>
       <c r="Q48" s="59" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16">
       <c r="A49" s="68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B49" s="70"/>
       <c r="C49" s="99" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="D49" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="70" t="s">
+      <c r="F49" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="F49" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="98" t="s">
+      <c r="I49" s="70" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="70" t="s">
+      <c r="J49" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="J49" s="70" t="s">
+      <c r="K49" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="L49" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="K49" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="L49" s="70" t="s">
+      <c r="M49" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="M49" s="70" t="s">
+      <c r="N49" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="N49" s="70" t="s">
-        <v>452</v>
-      </c>
       <c r="O49" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P49" s="70"/>
       <c r="Q49" s="98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="109" t="s">
         <v>454</v>
       </c>
-      <c r="D50" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="109" t="s">
+      <c r="F50" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="F50" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="59" t="s">
+      <c r="I50" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="I50" s="65" t="s">
+      <c r="J50" s="68" t="s">
         <v>457</v>
       </c>
-      <c r="J50" s="68" t="s">
-        <v>458</v>
-      </c>
       <c r="K50" s="68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L50" s="105">
         <v>17870043671</v>
@@ -5587,292 +5588,292 @@
         <v>13766239420</v>
       </c>
       <c r="O50" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P50" s="68"/>
       <c r="Q50" s="59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="67" customFormat="1">
+      <c r="A51" s="68" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
-        <v>460</v>
       </c>
       <c r="B51" s="74"/>
       <c r="C51" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="64" t="s">
+      <c r="I51" s="65" t="s">
         <v>463</v>
       </c>
-      <c r="I51" s="65" t="s">
+      <c r="J51" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="J51" s="68" t="s">
+      <c r="K51" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="K51" s="68" t="s">
+      <c r="L51" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="M51" s="68" t="s">
         <v>467</v>
       </c>
-      <c r="M51" s="68" t="s">
+      <c r="N51" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="N51" s="68" t="s">
-        <v>469</v>
-      </c>
       <c r="O51" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P51" s="68"/>
       <c r="Q51" s="64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="11" customFormat="1">
+      <c r="A52" s="68" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
-        <v>471</v>
       </c>
       <c r="B52" s="70"/>
       <c r="C52" s="99" t="s">
+        <v>471</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="D52" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="70" t="s">
+      <c r="F52" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="F52" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="98" t="s">
+      <c r="I52" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="I52" s="70" t="s">
+      <c r="J52" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="K52" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L52" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="K52" s="70" t="s">
-        <v>466</v>
-      </c>
-      <c r="L52" s="70" t="s">
+      <c r="M52" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="M52" s="70" t="s">
+      <c r="N52" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="N52" s="70" t="s">
-        <v>479</v>
-      </c>
       <c r="O52" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P52" s="70"/>
       <c r="Q52" s="98" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="85" customFormat="1">
+      <c r="A53" s="68" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
-        <v>481</v>
       </c>
       <c r="B53" s="72"/>
       <c r="C53" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="70" t="s">
         <v>482</v>
       </c>
-      <c r="D53" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="70" t="s">
+      <c r="F53" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="F53" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="59" t="s">
+      <c r="I53" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="I53" s="65" t="s">
+      <c r="J53" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="J53" s="68" t="s">
+      <c r="K53" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="K53" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="L53" s="68" t="s">
+      <c r="M53" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="M53" s="68" t="s">
+      <c r="N53" s="68" t="s">
         <v>488</v>
       </c>
-      <c r="N53" s="68" t="s">
-        <v>489</v>
-      </c>
       <c r="O53" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P53" s="68"/>
       <c r="Q53" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="72" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
-        <v>491</v>
       </c>
       <c r="B54" s="72"/>
       <c r="C54" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="D54" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="59" t="s">
+      <c r="F54" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="F54" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="59" t="s">
+      <c r="I54" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="J54" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="K54" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="L54" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="K54" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="L54" s="59" t="s">
+      <c r="M54" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="M54" s="59" t="s">
+      <c r="N54" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="N54" s="59" t="s">
-        <v>499</v>
-      </c>
       <c r="O54" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P54" s="59"/>
       <c r="Q54" s="59" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="120" customFormat="1">
       <c r="A55" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="115"/>
       <c r="C55" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="117" t="s">
+      <c r="F55" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="118" t="s">
+      <c r="I55" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="I55" s="119" t="s">
+      <c r="J55" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="J55" s="114" t="s">
+      <c r="K55" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="K55" s="114" t="s">
+      <c r="L55" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="L55" s="114" t="s">
+      <c r="M55" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="M55" s="114" t="s">
+      <c r="N55" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="N55" s="114" t="s">
-        <v>144</v>
-      </c>
       <c r="O55" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P55" s="114"/>
       <c r="Q55" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R55" s="120" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="130" customFormat="1" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="123" customFormat="1">
       <c r="A56" s="114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" s="115"/>
       <c r="C56" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="129" t="s">
+      <c r="F56" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="119" t="s">
+      <c r="I56" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="I56" s="119" t="s">
+      <c r="J56" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="J56" s="114" t="s">
-        <v>178</v>
-      </c>
       <c r="K56" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L56" s="114">
         <v>15179948960</v>
@@ -5884,14 +5885,14 @@
         <v>13767860562</v>
       </c>
       <c r="O56" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P56" s="114"/>
       <c r="Q56" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="R56" s="130" t="s">
-        <v>626</v>
+        <v>175</v>
+      </c>
+      <c r="R56" s="123" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5924,63 +5925,63 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="7" width="8.83203125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A1" s="125" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5988,141 +5989,141 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="B10" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6130,12 +6131,12 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6143,60 +6144,60 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6220,7 +6221,7 @@
       <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.58203125" style="11" customWidth="1"/>
@@ -6233,1419 +6234,1419 @@
     <col min="9" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="82" t="s">
+      <c r="H1" s="82" t="s">
         <v>518</v>
       </c>
-      <c r="H1" s="82" t="s">
-        <v>519</v>
-      </c>
       <c r="I1" s="81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="83">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>523</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="83">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>525</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="83">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="83">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>527</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>528</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="83">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>530</v>
-      </c>
       <c r="G6" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="83">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>531</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>532</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="83">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="83">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>534</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>535</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="83">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="83">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="83">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="83">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="83">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="83">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="83">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="83">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>161</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="83">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="83">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>538</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>539</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="83">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="83">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>540</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>541</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="83">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="83">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="83">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>221</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="83">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="83">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>239</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="83">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="83">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="83">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>543</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>544</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="83">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="83">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>284</v>
-      </c>
       <c r="G31" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="83">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>546</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>547</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="83">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F33" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>302</v>
-      </c>
       <c r="G33" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="83">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="83">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>320</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>321</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="83">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E36" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="83">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E37" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>339</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="83">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="83">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E39" s="16">
         <v>18879989132</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="83">
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E40" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>366</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="83">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E41" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>549</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="83">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="F42" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>382</v>
-      </c>
       <c r="G42" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="83">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E43" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>550</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>551</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="83">
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E44" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>399</v>
-      </c>
       <c r="G44" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="83">
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="83">
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>418</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="83">
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E47" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="83">
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E48" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>554</v>
-      </c>
       <c r="G48" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="83">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E49" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>555</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>556</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="83">
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>450</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>451</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="83">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E51" s="16">
         <v>17870043671</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="83">
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>468</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="83">
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E53" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>477</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>478</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="83">
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>488</v>
-      </c>
       <c r="G54" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="83">
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>497</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>498</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7669,7 +7670,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -7677,463 +7678,463 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1">
+      <c r="A1" s="126" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1">
+      <c r="A2" s="128" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>560</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="69" t="s">
+      <c r="C3" s="69" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="69" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1">
       <c r="A4" s="70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
     </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="9" customFormat="1">
       <c r="A6" s="70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="9" customFormat="1">
       <c r="A8" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
     </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="9" customFormat="1">
       <c r="A9" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="9" customFormat="1">
       <c r="A10" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
     </row>
-    <row r="11" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="66" customFormat="1">
       <c r="A11" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="9" customFormat="1">
       <c r="A12" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="9" customFormat="1">
       <c r="A13" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
       <c r="D13" s="75"/>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="11" customFormat="1">
       <c r="A14" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="9" customFormat="1">
       <c r="A15" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="69"/>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="9" customFormat="1">
       <c r="A16" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="9" customFormat="1">
       <c r="A17" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="9" customFormat="1">
       <c r="A18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="9" customFormat="1">
       <c r="A19" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="69"/>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="9" customFormat="1">
       <c r="A20" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="69"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="9" customFormat="1">
       <c r="A21" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="71"/>
       <c r="D21" s="71"/>
     </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="9" customFormat="1">
       <c r="A22" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
     </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="9" customFormat="1">
       <c r="A23" s="73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="71"/>
       <c r="D23" s="71"/>
     </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="9" customFormat="1">
       <c r="A24" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="69"/>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="9" customFormat="1">
       <c r="A25" s="72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
     </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="9" customFormat="1">
       <c r="A26" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
     </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="9" customFormat="1">
       <c r="A27" s="73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
     </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="9" customFormat="1">
       <c r="A28" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
     </row>
-    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="9" customFormat="1">
       <c r="A29" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="69"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
     </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="9" customFormat="1">
       <c r="A30" s="73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
     </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="9" customFormat="1">
       <c r="A31" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="69"/>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
     </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="9" customFormat="1">
       <c r="A32" s="73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="69"/>
       <c r="C32" s="71"/>
       <c r="D32" s="71"/>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="9" customFormat="1">
       <c r="A33" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="69"/>
       <c r="C33" s="71"/>
       <c r="D33" s="71"/>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="69"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
     </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="9" customFormat="1">
       <c r="A35" s="73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="69"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
     </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="9" customFormat="1">
       <c r="A36" s="73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" s="69"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="9" customFormat="1">
       <c r="A37" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" s="69"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
     </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="9" customFormat="1">
       <c r="A38" s="73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
     </row>
-    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="9" customFormat="1">
       <c r="A39" s="73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" s="69"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
     </row>
-    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="9" customFormat="1">
       <c r="A40" s="73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="69"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="9" customFormat="1">
       <c r="A41" s="73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="69"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
     </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="9" customFormat="1">
       <c r="A42" s="73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="69"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
     </row>
-    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="9" customFormat="1">
       <c r="A43" s="74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="69"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
     </row>
-    <row r="44" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="67" customFormat="1">
       <c r="A44" s="74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B44" s="69"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
     </row>
-    <row r="45" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="9" customFormat="1">
       <c r="A45" s="72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
     </row>
-    <row r="46" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="9" customFormat="1">
       <c r="A46" s="73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="78"/>
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
     </row>
-    <row r="47" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="9" customFormat="1">
       <c r="A47" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" s="69"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="9" customFormat="1">
       <c r="A48" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B48" s="69"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
     </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="9" customFormat="1">
       <c r="A49" s="72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B49" s="69"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
     </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="9" customFormat="1">
       <c r="A50" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" s="69"/>
       <c r="C50" s="71"/>
       <c r="D50" s="71"/>
     </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="9" customFormat="1">
       <c r="A51" s="73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" s="69"/>
       <c r="C51" s="71"/>
       <c r="D51" s="71"/>
     </row>
-    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="9" customFormat="1">
       <c r="A52" s="72" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B52" s="69"/>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
     </row>
-    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="9" customFormat="1">
       <c r="A53" s="73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" s="69"/>
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
     </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="9" customFormat="1">
       <c r="A54" s="74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" s="69"/>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" s="69"/>
       <c r="C55" s="71"/>
       <c r="D55" s="71"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="73" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" s="69"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -8159,435 +8160,435 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="50.6640625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28">
       <c r="A6" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28">
       <c r="A7" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="B15" s="59" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="36"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="50"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="36"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" s="36"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="63" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="36"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>439</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
-        <v>454</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>482</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="50"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="36"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="B47" s="59" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="36"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="B51" s="59" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="B52" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="B52" s="59" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" s="36"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="61"/>
       <c r="B55" s="62"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="61"/>
       <c r="B56" s="62"/>
     </row>
@@ -8607,516 +8608,516 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="17" customFormat="1">
       <c r="A1" s="21">
         <v>56</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>569</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="48"/>
       <c r="J1" s="21"/>
       <c r="K1" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L1" s="49"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="48"/>
       <c r="Q1" s="27"/>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1">
       <c r="A2" s="21">
         <v>10</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>571</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="48"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="27"/>
     </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="18" customFormat="1" ht="70">
       <c r="A3" s="30">
         <v>30</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="111" t="s">
         <v>572</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="111" t="s">
+      <c r="F3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>573</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>574</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="30"/>
       <c r="Q3" s="36" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="17" customFormat="1">
       <c r="A4" s="21">
         <v>31</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="112" t="s">
         <v>575</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>576</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="48"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="27"/>
     </row>
-    <row r="5" spans="1:17" s="18" customFormat="1" ht="70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="18" customFormat="1" ht="70">
       <c r="A5" s="30">
         <v>38</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>579</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>580</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="17" customFormat="1">
       <c r="A6" s="21">
         <v>45</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>582</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="48"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L6" s="49"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="27"/>
     </row>
-    <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="17" customFormat="1">
       <c r="A7" s="21">
         <v>46</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="112" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="112" t="s">
-        <v>493</v>
-      </c>
       <c r="F7" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="48"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L7" s="49"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="17" customFormat="1">
       <c r="A8" s="21">
         <v>47</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>584</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="48"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L8" s="49"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1">
       <c r="A9" s="21">
         <v>49</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>586</v>
-      </c>
       <c r="F9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="48"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="19" customFormat="1" ht="75">
       <c r="B10" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="O10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="19" customFormat="1" ht="41" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="O10" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="19" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="113" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="F11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="113" t="s">
+      <c r="I11" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="I11" s="52" t="s">
+      <c r="J11" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="K11" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="K11" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="L11" s="53" t="s">
+      <c r="M11" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="N11" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="N11" s="41" t="s">
-        <v>597</v>
-      </c>
       <c r="O11" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="41"/>
       <c r="Q11" s="36" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="19" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="19" customFormat="1" ht="37" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="F12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="39" t="s">
+      <c r="I12" s="52" t="s">
         <v>599</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="I12" s="52" t="s">
+      <c r="J12" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="K12" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="K12" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="53" t="s">
+      <c r="M12" s="39" t="s">
         <v>602</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="N12" s="41" t="s">
-        <v>604</v>
-      </c>
       <c r="O12" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="41"/>
       <c r="Q12" s="36" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="20" customFormat="1" ht="75">
       <c r="A13" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D13" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="47" t="s">
         <v>607</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="47" t="s">
+      <c r="I13" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="J13" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="K13" s="42" t="s">
         <v>610</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>611</v>
       </c>
       <c r="L13" s="54">
         <v>18079972933</v>
       </c>
       <c r="M13" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="N13" s="45" t="s">
         <v>612</v>
       </c>
-      <c r="N13" s="45" t="s">
-        <v>613</v>
-      </c>
       <c r="O13" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -9141,7 +9142,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.58203125" style="11" customWidth="1"/>
@@ -9149,554 +9150,554 @@
     <col min="4" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="15">
         <v>10</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="15">
         <v>21</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" s="15">
         <v>32</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15">
         <v>11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="15">
         <v>22</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="15">
         <v>33</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I3" s="15">
         <v>45</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15">
         <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="15">
         <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="15">
         <v>34</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="15">
         <v>46</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="15">
         <v>13</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="15">
         <v>24</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" s="15">
         <v>35</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I5" s="15">
         <v>47</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15">
         <v>14</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="15">
         <v>25</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="15">
         <v>36</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" s="15">
         <v>48</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="15">
         <v>15</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="15">
         <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="15">
         <v>37</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I7" s="15">
         <v>49</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="15">
         <v>16</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="15">
         <v>27</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8" s="15">
         <v>38</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I8" s="15">
         <v>50</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="15">
         <v>28</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="15">
         <v>39</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="15">
         <v>51</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="15">
         <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="15">
         <v>29</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G10" s="15">
         <v>40</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I10" s="15">
         <v>52</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" s="15">
         <v>19</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="15">
         <v>30</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="15">
         <v>41</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" s="15">
         <v>53</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" s="15">
         <v>20</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="15">
         <v>31</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="15">
         <v>42</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I12" s="16">
         <v>54</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13" s="14"/>
       <c r="G13" s="15">
         <v>43</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="14"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="14"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -9717,7 +9718,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="9"/>
   </cols>
@@ -9735,7 +9736,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.08203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
@@ -9744,43 +9745,43 @@
     <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A1" s="129" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+    </row>
+    <row r="2" spans="1:7" ht="33.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-    </row>
-    <row r="2" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9789,9 +9790,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -9800,9 +9801,9 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -9811,9 +9812,9 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -9822,9 +9823,9 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -9833,9 +9834,9 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -9844,9 +9845,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -9855,9 +9856,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9866,9 +9867,9 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9877,9 +9878,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -9888,9 +9889,9 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9899,9 +9900,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -9910,9 +9911,9 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -9921,9 +9922,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9932,9 +9933,9 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
